--- a/Structure/1 - Whole System/EnBalance.xlsx
+++ b/Structure/1 - Whole System/EnBalance.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D68022-84BC-48E8-98D3-57A12418A4C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56911A3-4D10-47D0-87E4-A4B766C2BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9079BC0D-0A31-4D65-BCF1-0FACDA48C1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Out" sheetId="3" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Working Out'!$A$1:$C$136</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="64">
   <si>
     <t>Source</t>
   </si>
@@ -221,6 +222,9 @@
   </si>
   <si>
     <t>Manufactured fuels</t>
+  </si>
+  <si>
+    <t>Non0Energy Use</t>
   </si>
 </sst>
 </file>
@@ -425,11 +429,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,17 +443,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Good 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -742,26 +741,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
@@ -771,36 +773,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="4">
         <f>'Energy Balance 2017'!B5</f>
-        <v>268.31704404318333</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>103.50382153434603</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="4">
         <f>'Energy Balance 2017'!B6</f>
-        <v>1.6522282889079966E-3</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>2.4836629406706793E-6</v>
+      </c>
+      <c r="I3" t="s">
         <v>46</v>
       </c>
       <c r="J3">
@@ -808,18 +810,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="4">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>146.75665254628672</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>44.103824018008972</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4">
@@ -827,18 +829,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="4">
         <f>'Energy Balance 2017'!B13</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>58</v>
       </c>
       <c r="J5">
@@ -846,18 +848,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="4">
         <f>'Energy Balance 2017'!B24</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
       <c r="J6">
@@ -865,18 +867,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="4">
         <f>'Energy Balance 2017'!B25</f>
-        <v>75.994609340656879</v>
-      </c>
-      <c r="I7" s="3" t="s">
+        <v>47.416063890381714</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J7">
@@ -884,18 +886,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="4">
         <f>'Energy Balance 2017'!B26</f>
-        <v>43.434813440240994</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>8.7709703445434606</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J8">
@@ -903,18 +905,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="4">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.36516395699914211</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>0.32134428620338401</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
       <c r="J9">
@@ -922,18 +924,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="4">
         <f>'Energy Balance 2017'!B28</f>
-        <v>1.7674569872885257</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>1.2073040152350458</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10">
@@ -941,18 +943,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="4">
         <f>C6+C20+C31+C41+C51+C61+C71+C81</f>
-        <v>1132.5447866843281</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>940.06384110970555</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11">
@@ -960,18 +962,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="4">
         <f>C7+C21+C32+C42+C52+C62+C72+C82</f>
-        <v>1947.2740396015565</v>
-      </c>
-      <c r="I12" s="1" t="s">
+        <v>1745.2862395145396</v>
+      </c>
+      <c r="I12" t="s">
         <v>61</v>
       </c>
       <c r="J12">
@@ -979,18 +981,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="4">
         <f>C8+C22+C33+C43+C53+C63+C73+C83</f>
-        <v>3876.8074897992142</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>3967.5807573249149</v>
+      </c>
+      <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13">
@@ -998,18 +1000,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="4">
         <f>C9+C23+C34+C44+C54+C64+C74+C84</f>
-        <v>4655.6062958771554</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>3260.1273662662452</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
       </c>
       <c r="J14">
@@ -1017,18 +1019,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="4">
         <f>C10+C24+C35+C45+C55+C65+C75+C85</f>
-        <v>2218.355609918628</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>1864.2448982020928</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
       </c>
       <c r="J15">
@@ -1036,16 +1038,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="4">
         <f>'Energy Balance 2017'!C5</f>
-        <v>53880.771466865459</v>
+        <v>50883.589256505795</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -1055,18 +1057,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="4">
         <f>'Energy Balance 2017'!C6</f>
-        <v>7102.8528716997844</v>
-      </c>
-      <c r="I17" s="3" t="s">
+        <v>5515.1795960228055</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J17">
@@ -1074,18 +1076,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="4">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>50098.135206804145</v>
-      </c>
-      <c r="I18" s="3" t="s">
+        <v>46736.103795260555</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J18">
@@ -1093,18 +1095,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="4">
         <f>'Energy Balance 2017'!C13</f>
-        <v>-14.206701935079563</v>
-      </c>
-      <c r="I19" s="3" t="s">
+        <v>25.367500758915437</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J19">
@@ -1112,14 +1114,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="4">
         <f>'Energy Balance 2017'!C24</f>
         <v>0</v>
       </c>
@@ -1131,801 +1133,800 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="4">
         <f>'Energy Balance 2017'!C25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="4">
         <f>'Energy Balance 2017'!C26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="4">
         <f>'Energy Balance 2017'!C27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="4">
         <f>'Energy Balance 2017'!C28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="4">
         <f>-'Energy Balance 2017'!C17+-'Energy Balance 2017'!C18</f>
-        <v>10871.282429826017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+        <v>9688.0325580269582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="4">
         <f>'Energy Balance 2017'!D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="4">
         <f>'Energy Balance 2017'!D6</f>
-        <v>2518.9822702540778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+        <v>2298.901863799982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="4">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>5063.1736514944141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+        <v>5723.2336008654074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="4">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>958.02668640858701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+        <v>718.92519782934278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="4">
         <f>-'Energy Balance 2017'!D13+'Energy Balance 2017'!D17+'Energy Balance 2017'!D18</f>
-        <v>10763.461233300342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+        <v>9615.148433561606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="4">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1013.6220410826397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+        <v>931.20230409120495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="4">
         <f>'Energy Balance 2017'!D25</f>
-        <v>183.1933860296034</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+        <v>189.65998870951083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="4">
         <f>'Energy Balance 2017'!D26</f>
-        <v>267.62779263426745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+        <v>255.09470980982778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="4">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4496.7727021550672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+        <v>3050.3515137525033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="4">
         <f>'Energy Balance 2017'!D28</f>
-        <v>534.32967121791887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+        <v>405.04136459876946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <f>'Energy Balance 2017'!D22-'Energy Balance 2017'!D15+-'Energy Balance 2017'!D15</f>
-        <v>573.98492106180265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+        <v>460.41903091982141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <f>'Energy Balance 2017'!E5</f>
-        <v>19933.868521867742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+        <v>26570.592800453833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f>'Energy Balance 2017'!E6</f>
-        <v>9496.9802780032915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+        <v>8432.3176509028835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="4">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>20211.234950617345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+        <v>25849.658825007085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f>'Energy Balance 2017'!E13+'Energy Balance 2017'!E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="4">
         <f>'Energy Balance 2017'!E24</f>
-        <v>57.485361213904547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <f>'Energy Balance 2017'!E25</f>
-        <v>872.78652624471704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+        <v>824.76124745147251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="4">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2368.0909619473405</v>
-      </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+        <v>2244.159514187229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="4">
         <f>'Energy Balance 2017'!E27</f>
         <v>0</v>
       </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="4">
         <f>'Energy Balance 2017'!E28</f>
-        <v>854.88599575010585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+        <v>795.84289216953732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="4">
         <f>-'Energy Balance 2017'!E18+'Energy Balance 2017'!E22</f>
-        <v>5066.365004097619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+        <v>5232.7271549297357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <f>'Energy Balance 2017'!F5</f>
-        <v>761.88279159088006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+        <v>838.96571310235129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f>'Energy Balance 2017'!F6</f>
-        <v>318.2905208254225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+        <v>396.88407385158212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="4">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>23.524761072446633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+        <v>31.66427890510332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <f>'Energy Balance 2017'!F13+'Energy Balance 2017'!F17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="4">
         <f>'Energy Balance 2017'!F24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f>'Energy Balance 2017'!F25</f>
-        <v>87.149772298636236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+        <v>166.4774205822346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="4">
         <f>'Energy Balance 2017'!F26</f>
-        <v>146.08165232597258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+        <v>101.72215605606667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="4">
         <f>'Energy Balance 2017'!F27</f>
-        <v>115.6831013480523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+        <v>176.45973971373269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="4">
         <f>'Energy Balance 2017'!F28</f>
-        <v>87.380202728974979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+        <v>148.08183736500709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="4">
         <f>-'Energy Balance 2017'!F18+'Energy Balance 2017'!F22</f>
-        <v>620.37171068291354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+        <v>610.51942042420558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5295.878382667388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+        <v>5696.8678091167494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <f>'Energy Balance 2017'!G6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="4">
         <f>'Energy Balance 2017'!G9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <f>'Energy Balance 2017'!G13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="4">
         <f>'Energy Balance 2017'!G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <f>'Energy Balance 2017'!G25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="4">
         <f>'Energy Balance 2017'!G26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="4">
         <f>'Energy Balance 2017'!G27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="4">
         <f>'Energy Balance 2017'!G28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="4">
         <f>-'Energy Balance 2017'!G17+-'Energy Balance 2017'!G18+'Energy Balance 2017'!G22</f>
-        <v>5295.878382667388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+        <v>5696.8678091167494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <f>'Energy Balance 2017'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <f>'Energy Balance 2017'!H6</f>
-        <v>106.93319002579594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+        <v>26.65954428202938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1470.0959587274372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+        <v>1664.6906276870252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <f>'Energy Balance 2017'!H13+'Energy Balance 2017'!H17+'Energy Balance 2017'!H18</f>
-        <v>4296.597728519916</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+        <v>4459.5589509888468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <f>'Energy Balance 2017'!H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <f>'Energy Balance 2017'!H25</f>
-        <v>718.46919819610491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+        <v>515.90633528023898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1025.0792974316162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+        <v>1342.8075423261128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <f>'Energy Balance 2017'!H27</f>
-        <v>42.785328417037135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+        <v>32.994768513806051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <f>'Energy Balance 2017'!H28</f>
-        <v>739.99228323433954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+        <v>514.0715000535439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <f>'Energy Balance 2017'!H22</f>
-        <v>407.10885253917718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>390.26122098022569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <f>'Energy Balance 2017'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <f>'Energy Balance 2017'!I6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <f>'Energy Balance 2017'!I9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
       <c r="B80" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <f>'Energy Balance 2017'!I13+'Energy Balance 2017'!I17+'Energy Balance 2017'!I18</f>
-        <v>120.37350197419499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120.41261291716035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <f>'Energy Balance 2017'!I24</f>
-        <v>61.437384387783851</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.8615370185005631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.6805474918382135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0651836007010982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>56</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <f>'Energy Balance 2017'!I26</f>
-        <v>26.49297201977658</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.0258646011353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <f>'Energy Balance 2017'!I27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>56</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <f>'Energy Balance 2017'!I28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
       <c r="B86" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <f>'Energy Balance 2017'!I22</f>
-        <v>22.76259807049712</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95.460027696823445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -1936,56 +1937,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="24"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="24"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="24"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="24"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="24"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="24"/>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C133" s="5"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1997,862 +1988,852 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" style="4" customWidth="1"/>
-    <col min="2" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14">
+      <c r="C2" s="3">
         <v>1.0904286999999999</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="3">
         <v>1.093439595</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="6" t="s">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="20">
-        <v>268.31704404318333</v>
-      </c>
-      <c r="C5" s="20">
-        <v>53880.771466865459</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>19933.868521867742</v>
-      </c>
-      <c r="F5" s="20">
-        <v>761.88279159088006</v>
-      </c>
-      <c r="G5" s="20">
-        <v>5295.878382667388</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>80140.718207034646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="4">
+        <v>103.50382153434603</v>
+      </c>
+      <c r="C5" s="4">
+        <v>50883.589256505795</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>26570.592800453833</v>
+      </c>
+      <c r="F5" s="4">
+        <v>838.96571310235129</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5696.8678091167494</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>84093.519400713078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="20">
-        <v>1.6522282889079966E-3</v>
-      </c>
-      <c r="C6" s="20">
-        <v>7102.8528716997844</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2518.9822702540778</v>
-      </c>
-      <c r="E6" s="20">
-        <v>9496.9802780032915</v>
-      </c>
-      <c r="F6" s="20">
-        <v>318.2905208254225</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>106.93319002579594</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>19544.04078303666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="4">
+        <v>2.4836629406706793E-6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5515.1795960228055</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2298.901863799982</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8432.3176509028835</v>
+      </c>
+      <c r="F6" s="4">
+        <v>396.88407385158212</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>26.65954428202938</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>16669.942731342944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20">
-        <v>7102.8528716997844</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1800.0823071540851</v>
-      </c>
-      <c r="E7" s="20">
-        <v>9459.2330180568024</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5515.1795960228055</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1757.1059516740338</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8394.5365434222294</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="20">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>718.89996309999276</v>
-      </c>
-      <c r="E8" s="20">
-        <v>37.747259946489457</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>106.93319002579594</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>541.79591212594812</v>
+      </c>
+      <c r="E8" s="4">
+        <v>37.781107480653688</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>26.65954428202938</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="20">
-        <v>-146.75665254628672</v>
-      </c>
-      <c r="C9" s="20">
-        <v>-50098.135206804145</v>
-      </c>
-      <c r="D9" s="20">
-        <v>-5063.1736514944141</v>
-      </c>
-      <c r="E9" s="20">
-        <v>-20211.234950617345</v>
-      </c>
-      <c r="F9" s="20">
-        <v>-23.524761072446633</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>-1470.0959587274372</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <v>-77012.921181262078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="4">
+        <v>-44.103824018008972</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-46736.103795260555</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-5723.2336008654074</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-25849.658825007085</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-31.66427890510332</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1664.6906276870252</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>-80049.454951743173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="20">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>-37699.575165462295</v>
-      </c>
-      <c r="D10" s="20">
-        <v>-3237.4766739010074</v>
-      </c>
-      <c r="E10" s="20">
-        <v>-2676.3533963886648</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-29885.570778758618</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-2920.9827760947624</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-3263.2381771281348</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="20">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>-12398.560041341847</v>
-      </c>
-      <c r="D11" s="20">
-        <v>-1825.6969775934067</v>
-      </c>
-      <c r="E11" s="20">
-        <v>-17534.881554228679</v>
-      </c>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>-1470.0959587274372</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-16850.53301650194</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-2802.2508247706446</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-22586.420647878949</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-1664.6906276870252</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20">
-        <v>0</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <v>-958.02668640858701</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>-958.02668640858701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-718.92519782934278</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>-718.92519782934278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>-14.206701935079563</v>
-      </c>
-      <c r="D13" s="20">
-        <v>-97.10881951224259</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>-111.31552144732215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>25.367500758915437</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-91.004485092773137</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>-65.636984333857697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8">
-        <v>121.56204372518552</v>
-      </c>
-      <c r="C14" s="8">
-        <v>10871.282429826017</v>
-      </c>
-      <c r="D14" s="8">
-        <v>-3599.3268871611658</v>
-      </c>
-      <c r="E14" s="8">
-        <v>9219.6138492536884</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1056.6664393845497</v>
-      </c>
-      <c r="G14" s="8">
-        <v>5295.878382667388</v>
-      </c>
-      <c r="H14" s="8">
-        <v>-1363.1627687016412</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>21602.51348899402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="B14" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9688.03255802696</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-4234.2614199875416</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9153.2516263496291</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1203.2605741412467</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5696.8678091167494</v>
+      </c>
+      <c r="H14" s="7">
+        <v>-1638.0310834049958</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>19928.520064242046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>-2.504987554365016</v>
-      </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>-2.504987554365016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-1.8863834003459488</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-25.486500429923581</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>-27.372883830269529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="8">
-        <v>121.56204372518552</v>
-      </c>
-      <c r="C16" s="8">
-        <v>10871.282429826017</v>
-      </c>
-      <c r="D16" s="8">
-        <v>-3601.8318747155308</v>
-      </c>
-      <c r="E16" s="8">
-        <v>9219.6138492536884</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1056.6664393845497</v>
-      </c>
-      <c r="G16" s="8">
-        <v>5295.878382667388</v>
-      </c>
-      <c r="H16" s="8">
-        <v>-1363.1627687016407</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>21600.008501439657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9688.0325580269582</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-4236.1478033878875</v>
+      </c>
+      <c r="E16" s="7">
+        <v>9153.2516263496291</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1203.2605741412467</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5696.8678091167494</v>
+      </c>
+      <c r="H16" s="7">
+        <v>-1663.5175838349194</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>19901.147180411772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20">
-        <v>0</v>
-      </c>
-      <c r="C17" s="20">
-        <v>-1074.9540430790682</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1074.9540430790682</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>-2411.7790870058489</v>
-      </c>
-      <c r="H17" s="20">
-        <v>2411.7790870058489</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-1623.5803795269042</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1623.5803795269042</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-2547.3740326741326</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2547.3740326741326</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="20">
-        <v>0</v>
-      </c>
-      <c r="C18" s="20">
-        <v>-9796.328386746949</v>
-      </c>
-      <c r="D18" s="20">
-        <v>9591.398370709032</v>
-      </c>
-      <c r="E18" s="20">
-        <v>-1232.6294866925787</v>
-      </c>
-      <c r="F18" s="20">
-        <v>-620.37171068291354</v>
-      </c>
-      <c r="G18" s="20">
-        <v>-2884.0992956615391</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1884.8186415140672</v>
-      </c>
-      <c r="I18" s="20">
-        <v>120.37350197419499</v>
-      </c>
-      <c r="J18" s="21">
-        <v>-2936.838365586686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-8064.4521785000543</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7900.5635689419287</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-1140.0672924062151</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-610.51942042420558</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-3149.4937764426163</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1912.184918314714</v>
+      </c>
+      <c r="I18" s="4">
+        <v>120.41261291716035</v>
+      </c>
+      <c r="J18" s="17">
+        <v>-3031.3715675992885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="20">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>-58.259009310215809</v>
-      </c>
-      <c r="E19" s="20">
-        <v>-1065.2483646981811</v>
-      </c>
-      <c r="F19" s="20">
-        <v>-607.37989438649879</v>
-      </c>
-      <c r="G19" s="20">
-        <v>-2884.0992956615391</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1884.8186415140672</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0</v>
-      </c>
-      <c r="J19" s="21">
-        <v>-2730.1679225423677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-61.638506886598229</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-968.54532586928303</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-598.76182287188647</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-3149.4937764426163</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1912.184918314714</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>-2866.2545137556699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="20">
-        <v>-9796.328386746949</v>
-      </c>
-      <c r="D20" s="20">
-        <v>9710.4043087511691</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
-        <v>-85.924077995779953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-8064.4521785000543</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8024.1571267020418</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>-40.295051798012537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="20">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>-60.746928731921706</v>
-      </c>
-      <c r="E21" s="20">
-        <v>-167.3811219943974</v>
-      </c>
-      <c r="F21" s="20">
-        <v>-12.991816296414754</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
-        <v>120.37350197419499</v>
-      </c>
-      <c r="J21" s="21">
-        <v>-120.74636504853888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-61.95505087351485</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-171.52196653693215</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-11.757597552319112</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>120.41261291716035</v>
+      </c>
+      <c r="J21" s="17">
+        <v>-124.82200204560576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="20">
-        <v>0</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>568.97494595307262</v>
-      </c>
-      <c r="E22" s="20">
-        <v>3833.7355174050408</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20">
-        <v>407.10885253917718</v>
-      </c>
-      <c r="I22" s="20">
-        <v>22.76259807049712</v>
-      </c>
-      <c r="J22" s="21">
-        <v>4832.5819139677869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>456.64626411912951</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4092.6598625235206</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>390.26122098022569</v>
+      </c>
+      <c r="I22" s="4">
+        <v>95.460027696823445</v>
+      </c>
+      <c r="J22" s="17">
+        <v>5035.0273753196989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8">
-        <v>121.56204372518552</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>6495.5455931194965</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4153.2488451560685</v>
-      </c>
-      <c r="F23" s="8">
-        <v>436.29472870163607</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>2526.3261072790979</v>
-      </c>
-      <c r="I23" s="8">
-        <v>97.610903903697874</v>
-      </c>
-      <c r="J23" s="9">
-        <v>13830.588221885182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="20">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20">
-        <v>1013.6220410826397</v>
-      </c>
-      <c r="E24" s="20">
-        <v>57.485361213904547</v>
-      </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
-        <v>61.437384387783851</v>
-      </c>
-      <c r="J24" s="21">
-        <v>1132.5447866843281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B23" s="7">
+        <v>59.4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4831.3498809618159</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3920.524471419893</v>
+      </c>
+      <c r="F23" s="7">
+        <v>592.74115371704102</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2405.7801461737017</v>
+      </c>
+      <c r="I23" s="7">
+        <v>24.9525852203369</v>
+      </c>
+      <c r="J23" s="8">
+        <v>11834.748237492788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>931.20230409120495</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8.8615370185005631</v>
+      </c>
+      <c r="J24" s="17">
+        <v>940.06384110970555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="20">
-        <v>75.994609340656879</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="20">
-        <v>183.1933860296034</v>
-      </c>
-      <c r="E25" s="20">
-        <v>872.78652624471704</v>
-      </c>
-      <c r="F25" s="20">
-        <v>87.149772298636236</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>718.46919819610491</v>
-      </c>
-      <c r="I25" s="20">
-        <v>9.6805474918382135</v>
-      </c>
-      <c r="J25" s="21">
-        <v>1947.2740396015565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="B25" s="4">
+        <v>47.416063890381714</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>189.65998870951083</v>
+      </c>
+      <c r="E25" s="4">
+        <v>824.76124745147251</v>
+      </c>
+      <c r="F25" s="4">
+        <v>166.4774205822346</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>515.90633528023898</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.0651836007010982</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1745.2862395145396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="20">
-        <v>43.434813440240994</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>267.62779263426745</v>
-      </c>
-      <c r="E26" s="20">
-        <v>2368.0909619473405</v>
-      </c>
-      <c r="F26" s="20">
-        <v>146.08165232597258</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1025.0792974316162</v>
-      </c>
-      <c r="I26" s="20">
-        <v>26.49297201977658</v>
-      </c>
-      <c r="J26" s="21">
-        <v>3876.8074897992142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="B26" s="4">
+        <v>8.7709703445434606</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>255.09470980982778</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2244.159514187229</v>
+      </c>
+      <c r="F26" s="4">
+        <v>101.72215605606667</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1342.8075423261128</v>
+      </c>
+      <c r="I26" s="4">
+        <v>15.0258646011353</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3967.5807573249149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="20">
-        <v>0.36516395699914211</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20">
-        <v>4496.7727021550672</v>
-      </c>
-      <c r="E27" s="20">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <v>115.6831013480523</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="20">
-        <v>42.785328417037135</v>
-      </c>
-      <c r="I27" s="20">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21">
-        <v>4655.6062958771554</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="B27" s="4">
+        <v>0.32134428620338401</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3050.3515137525033</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>176.45973971373269</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>32.994768513806051</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>3260.1273662662452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="22">
-        <v>1.7674569872885257</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22">
-        <v>534.32967121791887</v>
-      </c>
-      <c r="E28" s="22">
-        <v>854.88599575010585</v>
-      </c>
-      <c r="F28" s="22">
-        <v>87.380202728974979</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
-        <v>739.99228323433954</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23">
-        <v>2218.355609918628</v>
+      <c r="B28" s="18">
+        <v>1.2073040152350458</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>405.04136459876946</v>
+      </c>
+      <c r="E28" s="18">
+        <v>795.84289216953732</v>
+      </c>
+      <c r="F28" s="18">
+        <v>148.08183736500709</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>514.0715000535439</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1864.2448982020928</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2848,11 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'Working Out'!J2</f>
         <v>0</v>
@@ -2888,7 +2870,7 @@
         <v>Indigenous production</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'Working Out'!J3</f>
         <v>1</v>
@@ -2898,7 +2880,7 @@
         <v>Imports</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'Working Out'!J4</f>
         <v>2</v>
@@ -2908,7 +2890,7 @@
         <v>Exports</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'Working Out'!J5</f>
         <v>3</v>
@@ -2918,7 +2900,7 @@
         <v>TTL*</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'Working Out'!J6</f>
         <v>4</v>
@@ -2928,7 +2910,7 @@
         <v>Transfers &amp; transformation In</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'Working Out'!J7</f>
         <v>5</v>
@@ -2938,7 +2920,7 @@
         <v>Non-energy use</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'Working Out'!J8</f>
         <v>6</v>
@@ -2948,7 +2930,7 @@
         <v>Industry</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'Working Out'!J9</f>
         <v>7</v>
@@ -2958,7 +2940,7 @@
         <v>Domestic</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'Working Out'!J10</f>
         <v>8</v>
@@ -2968,7 +2950,7 @@
         <v>Transport</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'Working Out'!J11</f>
         <v>9</v>
@@ -2978,7 +2960,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'Working Out'!J12</f>
         <v>10</v>
@@ -2988,7 +2970,7 @@
         <v>Final consumption</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'Working Out'!J13</f>
         <v>11</v>
@@ -2998,7 +2980,7 @@
         <v>Coal</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'Working Out'!J14</f>
         <v>12</v>
@@ -3008,7 +2990,7 @@
         <v>Primary oils</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'Working Out'!J15</f>
         <v>13</v>
@@ -3018,7 +3000,7 @@
         <v>Petrol</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'Working Out'!J16</f>
         <v>14</v>
@@ -3028,7 +3010,7 @@
         <v>Natural gas</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'Working Out'!J17</f>
         <v>15</v>
@@ -3038,7 +3020,7 @@
         <v>Bioenergy &amp; wastes</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>'Working Out'!J18</f>
         <v>16</v>
@@ -3048,7 +3030,7 @@
         <v>Primary electricity</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'Working Out'!J19</f>
         <v>17</v>
@@ -3058,7 +3040,7 @@
         <v>Electricity</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'Working Out'!J20</f>
         <v>18</v>
@@ -3078,12 +3060,15 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C166"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="1">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>VLOOKUP('Working Out'!A2,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3105,10 +3090,10 @@
       </c>
       <c r="C2">
         <f>'Working Out'!C2</f>
-        <v>268.31704404318333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103.50382153434603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>VLOOKUP('Working Out'!A3,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3119,10 +3104,10 @@
       </c>
       <c r="C3">
         <f>'Working Out'!C3</f>
-        <v>1.6522282889079966E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.4836629406706793E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>VLOOKUP('Working Out'!A4,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3133,10 +3118,10 @@
       </c>
       <c r="C4">
         <f>'Working Out'!C4</f>
-        <v>146.75665254628672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44.103824018008972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>VLOOKUP('Working Out'!A5,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3150,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>VLOOKUP('Working Out'!A6,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3164,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>VLOOKUP('Working Out'!A7,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3175,10 +3160,10 @@
       </c>
       <c r="C7">
         <f>'Working Out'!C7</f>
-        <v>75.994609340656879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47.416063890381714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>VLOOKUP('Working Out'!A8,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3189,10 +3174,10 @@
       </c>
       <c r="C8">
         <f>'Working Out'!C8</f>
-        <v>43.434813440240994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.7709703445434606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>VLOOKUP('Working Out'!A9,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3203,10 +3188,10 @@
       </c>
       <c r="C9">
         <f>'Working Out'!C9</f>
-        <v>0.36516395699914211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.32134428620338401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>VLOOKUP('Working Out'!A10,'Working Out'!$I:$J,2,0)</f>
         <v>11</v>
@@ -3217,10 +3202,10 @@
       </c>
       <c r="C10">
         <f>'Working Out'!C10</f>
-        <v>1.7674569872885257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.2073040152350458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>VLOOKUP('Working Out'!A11,'Working Out'!$I:$J,2,0)</f>
         <v>5</v>
@@ -3231,10 +3216,10 @@
       </c>
       <c r="C11">
         <f>'Working Out'!C11</f>
-        <v>1132.5447866843281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>940.06384110970555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>VLOOKUP('Working Out'!A12,'Working Out'!$I:$J,2,0)</f>
         <v>6</v>
@@ -3245,10 +3230,10 @@
       </c>
       <c r="C12">
         <f>'Working Out'!C12</f>
-        <v>1947.2740396015565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1745.2862395145396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>VLOOKUP('Working Out'!A13,'Working Out'!$I:$J,2,0)</f>
         <v>7</v>
@@ -3259,10 +3244,10 @@
       </c>
       <c r="C13">
         <f>'Working Out'!C13</f>
-        <v>3876.8074897992142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3967.5807573249149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>VLOOKUP('Working Out'!A14,'Working Out'!$I:$J,2,0)</f>
         <v>8</v>
@@ -3273,10 +3258,10 @@
       </c>
       <c r="C14">
         <f>'Working Out'!C14</f>
-        <v>4655.6062958771554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3260.1273662662452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>VLOOKUP('Working Out'!A15,'Working Out'!$I:$J,2,0)</f>
         <v>9</v>
@@ -3287,10 +3272,10 @@
       </c>
       <c r="C15">
         <f>'Working Out'!C15</f>
-        <v>2218.355609918628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1864.2448982020928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>VLOOKUP('Working Out'!A16,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3301,10 +3286,10 @@
       </c>
       <c r="C16">
         <f>'Working Out'!C16</f>
-        <v>53880.771466865459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50883.589256505795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>VLOOKUP('Working Out'!A17,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3315,10 +3300,10 @@
       </c>
       <c r="C17">
         <f>'Working Out'!C17</f>
-        <v>7102.8528716997844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5515.1795960228055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>VLOOKUP('Working Out'!A18,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3329,10 +3314,10 @@
       </c>
       <c r="C18">
         <f>'Working Out'!C18</f>
-        <v>50098.135206804145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46736.103795260555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>VLOOKUP('Working Out'!A19,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3343,10 +3328,10 @@
       </c>
       <c r="C19">
         <f>'Working Out'!C19</f>
-        <v>-14.206701935079563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25.367500758915437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>VLOOKUP('Working Out'!A20,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3360,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>VLOOKUP('Working Out'!A21,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3374,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>VLOOKUP('Working Out'!A22,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3388,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>VLOOKUP('Working Out'!A23,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3402,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>VLOOKUP('Working Out'!A24,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3416,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>VLOOKUP('Working Out'!A25,'Working Out'!$I:$J,2,0)</f>
         <v>12</v>
@@ -3427,10 +3412,10 @@
       </c>
       <c r="C25">
         <f>'Working Out'!C25</f>
-        <v>10871.282429826017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9688.0325580269582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>VLOOKUP('Working Out'!A26,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3444,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>VLOOKUP('Working Out'!A27,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3455,10 +3440,10 @@
       </c>
       <c r="C27">
         <f>'Working Out'!C27</f>
-        <v>2518.9822702540778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2298.901863799982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>VLOOKUP('Working Out'!A28,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3469,10 +3454,10 @@
       </c>
       <c r="C28">
         <f>'Working Out'!C28</f>
-        <v>5063.1736514944141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5723.2336008654074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>VLOOKUP('Working Out'!A29,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3483,10 +3468,10 @@
       </c>
       <c r="C29">
         <f>'Working Out'!C29</f>
-        <v>958.02668640858701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>718.92519782934278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>VLOOKUP('Working Out'!A30,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3497,10 +3482,10 @@
       </c>
       <c r="C30">
         <f>'Working Out'!C30</f>
-        <v>10763.461233300342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9615.148433561606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>VLOOKUP('Working Out'!A31,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3511,10 +3496,10 @@
       </c>
       <c r="C31">
         <f>'Working Out'!C31</f>
-        <v>1013.6220410826397</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>931.20230409120495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>VLOOKUP('Working Out'!A32,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3525,10 +3510,10 @@
       </c>
       <c r="C32">
         <f>'Working Out'!C32</f>
-        <v>183.1933860296034</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189.65998870951083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>VLOOKUP('Working Out'!A33,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3539,10 +3524,10 @@
       </c>
       <c r="C33">
         <f>'Working Out'!C33</f>
-        <v>267.62779263426745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>255.09470980982778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>VLOOKUP('Working Out'!A34,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3553,10 +3538,10 @@
       </c>
       <c r="C34">
         <f>'Working Out'!C34</f>
-        <v>4496.7727021550672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3050.3515137525033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>VLOOKUP('Working Out'!A35,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3567,10 +3552,10 @@
       </c>
       <c r="C35">
         <f>'Working Out'!C35</f>
-        <v>534.32967121791887</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>405.04136459876946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>VLOOKUP('Working Out'!A36,'Working Out'!$I:$J,2,0)</f>
         <v>13</v>
@@ -3581,10 +3566,10 @@
       </c>
       <c r="C36">
         <f>'Working Out'!C36</f>
-        <v>573.98492106180265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>460.41903091982141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>VLOOKUP('Working Out'!A37,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3595,10 +3580,10 @@
       </c>
       <c r="C37">
         <f>'Working Out'!C37</f>
-        <v>19933.868521867742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26570.592800453833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>VLOOKUP('Working Out'!A38,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3609,10 +3594,10 @@
       </c>
       <c r="C38">
         <f>'Working Out'!C38</f>
-        <v>9496.9802780032915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8432.3176509028835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>VLOOKUP('Working Out'!A39,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3623,10 +3608,10 @@
       </c>
       <c r="C39">
         <f>'Working Out'!C39</f>
-        <v>20211.234950617345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25849.658825007085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>VLOOKUP('Working Out'!A40,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3640,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>VLOOKUP('Working Out'!A41,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3651,10 +3636,10 @@
       </c>
       <c r="C41">
         <f>'Working Out'!C41</f>
-        <v>57.485361213904547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>VLOOKUP('Working Out'!A42,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3665,10 +3650,10 @@
       </c>
       <c r="C42">
         <f>'Working Out'!C42</f>
-        <v>872.78652624471704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>824.76124745147251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>VLOOKUP('Working Out'!A43,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3679,10 +3664,10 @@
       </c>
       <c r="C43">
         <f>'Working Out'!C43</f>
-        <v>2368.0909619473405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2244.159514187229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>VLOOKUP('Working Out'!A44,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3696,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>VLOOKUP('Working Out'!A45,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3707,10 +3692,10 @@
       </c>
       <c r="C45">
         <f>'Working Out'!C45</f>
-        <v>854.88599575010585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>795.84289216953732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>VLOOKUP('Working Out'!A46,'Working Out'!$I:$J,2,0)</f>
         <v>14</v>
@@ -3721,10 +3706,10 @@
       </c>
       <c r="C46">
         <f>'Working Out'!C46</f>
-        <v>5066.365004097619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5232.7271549297357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>VLOOKUP('Working Out'!A47,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3735,10 +3720,10 @@
       </c>
       <c r="C47">
         <f>'Working Out'!C47</f>
-        <v>761.88279159088006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>838.96571310235129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>VLOOKUP('Working Out'!A48,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3749,10 +3734,10 @@
       </c>
       <c r="C48">
         <f>'Working Out'!C48</f>
-        <v>318.2905208254225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>396.88407385158212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>VLOOKUP('Working Out'!A49,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3763,10 +3748,10 @@
       </c>
       <c r="C49">
         <f>'Working Out'!C49</f>
-        <v>23.524761072446633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31.66427890510332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>VLOOKUP('Working Out'!A50,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3780,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>VLOOKUP('Working Out'!A51,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3794,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>VLOOKUP('Working Out'!A52,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3805,10 +3790,10 @@
       </c>
       <c r="C52">
         <f>'Working Out'!C52</f>
-        <v>87.149772298636236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>166.4774205822346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>VLOOKUP('Working Out'!A53,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3819,10 +3804,10 @@
       </c>
       <c r="C53">
         <f>'Working Out'!C53</f>
-        <v>146.08165232597258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101.72215605606667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>VLOOKUP('Working Out'!A54,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3833,10 +3818,10 @@
       </c>
       <c r="C54">
         <f>'Working Out'!C54</f>
-        <v>115.6831013480523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176.45973971373269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>VLOOKUP('Working Out'!A55,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3847,10 +3832,10 @@
       </c>
       <c r="C55">
         <f>'Working Out'!C55</f>
-        <v>87.380202728974979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148.08183736500709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>VLOOKUP('Working Out'!A56,'Working Out'!$I:$J,2,0)</f>
         <v>15</v>
@@ -3861,10 +3846,10 @@
       </c>
       <c r="C56">
         <f>'Working Out'!C56</f>
-        <v>620.37171068291354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>610.51942042420558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>VLOOKUP('Working Out'!A57,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -3875,10 +3860,10 @@
       </c>
       <c r="C57">
         <f>'Working Out'!C57</f>
-        <v>5295.878382667388</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5696.8678091167494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>VLOOKUP('Working Out'!A58,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -3892,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>VLOOKUP('Working Out'!A59,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3906,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>VLOOKUP('Working Out'!A60,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -3920,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>VLOOKUP('Working Out'!A61,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3934,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>VLOOKUP('Working Out'!A62,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3948,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>VLOOKUP('Working Out'!A63,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3962,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>VLOOKUP('Working Out'!A64,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3976,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>VLOOKUP('Working Out'!A65,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -3990,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>VLOOKUP('Working Out'!A66,'Working Out'!$I:$J,2,0)</f>
         <v>16</v>
@@ -4001,10 +3986,10 @@
       </c>
       <c r="C66">
         <f>'Working Out'!C66</f>
-        <v>5295.878382667388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5696.8678091167494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>VLOOKUP('Working Out'!A67,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4018,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>VLOOKUP('Working Out'!A68,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4029,10 +4014,10 @@
       </c>
       <c r="C68">
         <f>'Working Out'!C68</f>
-        <v>106.93319002579594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26.65954428202938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>VLOOKUP('Working Out'!A69,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4043,10 +4028,10 @@
       </c>
       <c r="C69">
         <f>'Working Out'!C69</f>
-        <v>1470.0959587274372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1664.6906276870252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>VLOOKUP('Working Out'!A70,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4057,10 +4042,10 @@
       </c>
       <c r="C70">
         <f>'Working Out'!C70</f>
-        <v>4296.597728519916</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4459.5589509888468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>VLOOKUP('Working Out'!A71,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4074,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>VLOOKUP('Working Out'!A72,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4085,10 +4070,10 @@
       </c>
       <c r="C72">
         <f>'Working Out'!C72</f>
-        <v>718.46919819610491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>515.90633528023898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>VLOOKUP('Working Out'!A73,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4099,10 +4084,10 @@
       </c>
       <c r="C73">
         <f>'Working Out'!C73</f>
-        <v>1025.0792974316162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1342.8075423261128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>VLOOKUP('Working Out'!A74,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4113,10 +4098,10 @@
       </c>
       <c r="C74">
         <f>'Working Out'!C74</f>
-        <v>42.785328417037135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32.994768513806051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>VLOOKUP('Working Out'!A75,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4127,10 +4112,10 @@
       </c>
       <c r="C75">
         <f>'Working Out'!C75</f>
-        <v>739.99228323433954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>514.0715000535439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>VLOOKUP('Working Out'!A76,'Working Out'!$I:$J,2,0)</f>
         <v>17</v>
@@ -4141,10 +4126,10 @@
       </c>
       <c r="C76">
         <f>'Working Out'!C76</f>
-        <v>407.10885253917718</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>390.26122098022569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>VLOOKUP('Working Out'!A77,'Working Out'!$I:$J,2,0)</f>
         <v>0</v>
@@ -4158,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>VLOOKUP('Working Out'!A78,'Working Out'!$I:$J,2,0)</f>
         <v>1</v>
@@ -4172,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>VLOOKUP('Working Out'!A79,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4186,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>VLOOKUP('Working Out'!A80,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4197,10 +4182,10 @@
       </c>
       <c r="C80">
         <f>'Working Out'!C80</f>
-        <v>120.37350197419499</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120.41261291716035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>VLOOKUP('Working Out'!A81,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4211,10 +4196,10 @@
       </c>
       <c r="C81">
         <f>'Working Out'!C81</f>
-        <v>61.437384387783851</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.8615370185005631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>VLOOKUP('Working Out'!A82,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4225,10 +4210,10 @@
       </c>
       <c r="C82">
         <f>'Working Out'!C82</f>
-        <v>9.6805474918382135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0651836007010982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>VLOOKUP('Working Out'!A83,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4239,10 +4224,10 @@
       </c>
       <c r="C83">
         <f>'Working Out'!C83</f>
-        <v>26.49297201977658</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.0258646011353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>VLOOKUP('Working Out'!A84,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4256,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>VLOOKUP('Working Out'!A85,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4270,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>VLOOKUP('Working Out'!A86,'Working Out'!$I:$J,2,0)</f>
         <v>18</v>
@@ -4281,10 +4266,10 @@
       </c>
       <c r="C86">
         <f>'Working Out'!C86</f>
-        <v>22.76259807049712</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>95.460027696823445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>VLOOKUP('Working Out'!A87,'Working Out'!$I:$J,2,0)</f>
         <v>4</v>
@@ -4310,22 +4295,25 @@
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="1">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
@@ -4335,36 +4323,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="4">
         <f>'Energy Balance 2017'!B5</f>
-        <v>268.31704404318333</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>103.50382153434603</v>
+      </c>
+      <c r="I2" t="s">
         <v>45</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="4">
         <f>'Energy Balance 2017'!B6</f>
-        <v>1.6522282889079966E-3</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>2.4836629406706793E-6</v>
+      </c>
+      <c r="I3" t="s">
         <v>46</v>
       </c>
       <c r="J3">
@@ -4372,18 +4360,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="4">
         <f>-'Energy Balance 2017'!B9</f>
-        <v>146.75665254628672</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>44.103824018008972</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4">
@@ -4391,18 +4379,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="4">
         <f>'Energy Balance 2017'!B12</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5">
@@ -4410,18 +4398,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="4">
         <f>'Energy Balance 2017'!B13</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>47</v>
       </c>
       <c r="J6">
@@ -4429,18 +4417,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="4">
         <f>'Energy Balance 2017'!B24</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J7">
@@ -4448,18 +4436,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="4">
         <f>'Energy Balance 2017'!B25</f>
-        <v>75.994609340656879</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>47.416063890381714</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J8">
@@ -4467,18 +4455,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="4">
         <f>'Energy Balance 2017'!B26</f>
-        <v>43.434813440240994</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>8.7709703445434606</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
       <c r="J9">
@@ -4486,18 +4474,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="4">
         <f>'Energy Balance 2017'!B27</f>
-        <v>0.36516395699914211</v>
-      </c>
-      <c r="I10" s="1" t="s">
+        <v>0.32134428620338401</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10">
@@ -4505,18 +4493,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="4">
         <f>'Energy Balance 2017'!B28</f>
-        <v>1.7674569872885257</v>
-      </c>
-      <c r="I11" s="1" t="s">
+        <v>1.2073040152350458</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11">
@@ -4524,18 +4512,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="4">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>44</v>
       </c>
       <c r="J12">
@@ -4543,18 +4531,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="4">
         <f>C8</f>
-        <v>75.994609340656879</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>47.416063890381714</v>
+      </c>
+      <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13">
@@ -4562,18 +4550,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="4">
         <f>C9</f>
-        <v>43.434813440240994</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>8.7709703445434606</v>
+      </c>
+      <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14">
@@ -4581,18 +4569,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="4">
         <f>C10</f>
-        <v>0.36516395699914211</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>0.32134428620338401</v>
+      </c>
+      <c r="I15" t="s">
         <v>49</v>
       </c>
       <c r="J15">
@@ -4600,18 +4588,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="4">
         <f>C11</f>
-        <v>1.7674569872885257</v>
-      </c>
-      <c r="I16" s="1" t="s">
+        <v>1.2073040152350458</v>
+      </c>
+      <c r="I16" t="s">
         <v>50</v>
       </c>
       <c r="J16">
@@ -4619,18 +4607,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="4">
         <f>'Energy Balance 2017'!C5</f>
-        <v>53880.771466865459</v>
-      </c>
-      <c r="I17" s="1" t="s">
+        <v>50883.589256505795</v>
+      </c>
+      <c r="I17" t="s">
         <v>13</v>
       </c>
       <c r="J17">
@@ -4638,18 +4626,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="4">
         <f>'Energy Balance 2017'!C6</f>
-        <v>7102.8528716997844</v>
-      </c>
-      <c r="I18" s="1" t="s">
+        <v>5515.1795960228055</v>
+      </c>
+      <c r="I18" t="s">
         <v>15</v>
       </c>
       <c r="J18">
@@ -4657,16 +4645,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="4">
         <f>-'Energy Balance 2017'!C9</f>
-        <v>50098.135206804145</v>
+        <v>46736.103795260555</v>
       </c>
       <c r="I19" t="s">
         <v>51</v>
@@ -4676,14 +4664,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="4">
         <f>'Energy Balance 2017'!C12</f>
         <v>0</v>
       </c>
@@ -4695,16 +4683,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="4">
         <f>'Energy Balance 2017'!C13</f>
-        <v>-14.206701935079563</v>
+        <v>25.367500758915437</v>
       </c>
       <c r="I21" t="s">
         <v>54</v>
@@ -4714,14 +4702,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="4">
         <f>'Energy Balance 2017'!C24</f>
         <v>0</v>
       </c>
@@ -4733,18 +4721,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="4">
         <f>'Energy Balance 2017'!C25</f>
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J23">
@@ -4752,18 +4740,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="4">
         <f>'Energy Balance 2017'!C26</f>
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J24">
@@ -4771,18 +4759,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="4">
         <f>'Energy Balance 2017'!C27</f>
         <v>0</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J25">
@@ -4790,14 +4778,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="4">
         <f>'Energy Balance 2017'!C28</f>
         <v>0</v>
       </c>
@@ -4809,1386 +4797,1385 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="4">
         <f>C22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="4">
         <f>C23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="4">
         <f>C24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="4">
         <f>C25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="4">
         <f>C26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="4">
         <f>-'Energy Balance 2017'!C17</f>
-        <v>1074.9540430790682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+        <v>1623.5803795269042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="4">
         <f>-'Energy Balance 2017'!C18</f>
-        <v>9796.328386746949</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+        <v>8064.4521785000543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="4">
         <f>'Energy Balance 2017'!D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="4">
         <f>'Energy Balance 2017'!D6</f>
-        <v>2518.9822702540778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+        <v>2298.901863799982</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="4">
         <f>-'Energy Balance 2017'!D9</f>
-        <v>5063.1736514944141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+        <v>5723.2336008654074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="4">
         <f>-'Energy Balance 2017'!D12</f>
-        <v>958.02668640858701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+        <v>718.92519782934278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="4">
         <f>-'Energy Balance 2017'!D13</f>
-        <v>97.10881951224259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+        <v>91.004485092773137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="4">
         <f>'Energy Balance 2017'!D24</f>
-        <v>1013.6220410826397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+        <v>931.20230409120495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="4">
         <f>'Energy Balance 2017'!D25</f>
-        <v>183.1933860296034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+        <v>189.65998870951083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="4">
         <f>'Energy Balance 2017'!D26</f>
-        <v>267.62779263426745</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+        <v>255.09470980982778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="4">
         <f>'Energy Balance 2017'!D27</f>
-        <v>4496.7727021550672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+        <v>3050.3515137525033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="4">
         <f>'Energy Balance 2017'!D28</f>
-        <v>534.32967121791887</v>
-      </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+        <v>405.04136459876946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="4">
         <f>C39</f>
-        <v>1013.6220410826397</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+        <v>931.20230409120495</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="4">
         <f>C40</f>
-        <v>183.1933860296034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+        <v>189.65998870951083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="4">
         <f>C41</f>
-        <v>267.62779263426745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+        <v>255.09470980982778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="4">
         <f>C42</f>
-        <v>4496.7727021550672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+        <v>3050.3515137525033</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="4">
         <f>C43</f>
-        <v>534.32967121791887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+        <v>405.04136459876946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="4">
         <f>'Energy Balance 2017'!D17</f>
-        <v>1074.9540430790682</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+        <v>1623.5803795269042</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="4">
         <f>'Energy Balance 2017'!D18</f>
-        <v>9591.398370709032</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+        <v>7900.5635689419287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <f>'Energy Balance 2017'!D22</f>
-        <v>568.97494595307262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+        <v>456.64626411912951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <f>'Energy Balance 2017'!E5</f>
-        <v>19933.868521867742</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+        <v>26570.592800453833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <f>'Energy Balance 2017'!E6</f>
-        <v>9496.9802780032915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+        <v>8432.3176509028835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="4">
         <f>-'Energy Balance 2017'!E9</f>
-        <v>20211.234950617345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+        <v>25849.658825007085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="4">
         <f>'Energy Balance 2017'!E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <f>'Energy Balance 2017'!E13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="4">
         <f>'Energy Balance 2017'!E24</f>
-        <v>57.485361213904547</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <f>'Energy Balance 2017'!E25</f>
-        <v>872.78652624471704</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+        <v>824.76124745147251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="4">
         <f>'Energy Balance 2017'!E26</f>
-        <v>2368.0909619473405</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+        <v>2244.159514187229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="4">
         <f>'Energy Balance 2017'!E27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="4">
         <f>'Energy Balance 2017'!E28</f>
-        <v>854.88599575010585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+        <v>795.84289216953732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="4">
         <f>C57</f>
-        <v>57.485361213904547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="4">
         <f>C58</f>
-        <v>872.78652624471704</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+        <v>824.76124745147251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="4">
         <f>C59</f>
-        <v>2368.0909619473405</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+        <v>2244.159514187229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="4">
         <f t="shared" ref="C65" si="1">C60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="4">
         <f>C61</f>
-        <v>854.88599575010585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+        <v>795.84289216953732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="4">
         <f>'Energy Balance 2017'!E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="4">
         <f>-'Energy Balance 2017'!E18</f>
-        <v>1232.6294866925787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+        <v>1140.0672924062151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="4">
         <f>'Energy Balance 2017'!E22</f>
-        <v>3833.7355174050408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+        <v>4092.6598625235206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <f>'Energy Balance 2017'!F5</f>
-        <v>761.88279159088006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+        <v>838.96571310235129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <f>'Energy Balance 2017'!F6</f>
-        <v>318.2905208254225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+        <v>396.88407385158212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="4">
         <f>-'Energy Balance 2017'!F9</f>
-        <v>23.524761072446633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+        <v>31.66427890510332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="4">
         <f>'Energy Balance 2017'!F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <f>'Energy Balance 2017'!F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="4">
         <f>'Energy Balance 2017'!F24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <f>'Energy Balance 2017'!F25</f>
-        <v>87.149772298636236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+        <v>166.4774205822346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="4">
         <f>'Energy Balance 2017'!F26</f>
-        <v>146.08165232597258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+        <v>101.72215605606667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="4">
         <f>'Energy Balance 2017'!F27</f>
-        <v>115.6831013480523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+        <v>176.45973971373269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="4">
         <f>'Energy Balance 2017'!F28</f>
-        <v>87.380202728974979</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+        <v>148.08183736500709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="4">
         <f>C75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="4">
         <f>C76</f>
-        <v>87.149772298636236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+        <v>166.4774205822346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="4">
         <f>C77</f>
-        <v>146.08165232597258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+        <v>101.72215605606667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="4">
         <f>C78</f>
-        <v>115.6831013480523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+        <v>176.45973971373269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="4">
         <f>C79</f>
-        <v>87.380202728974979</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+        <v>148.08183736500709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>51</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="4">
         <f>'Energy Balance 2017'!F17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="4">
         <f>-'Energy Balance 2017'!F18</f>
-        <v>620.37171068291354</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+        <v>610.51942042420558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="4">
         <f>'Energy Balance 2017'!F22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>45</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <f>'Energy Balance 2017'!G5</f>
-        <v>5295.878382667388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+        <v>5696.8678091167494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <f>'Energy Balance 2017'!G6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="4">
         <f>'Energy Balance 2017'!G9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="4">
         <f>'Energy Balance 2017'!G12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>47</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <f>'Energy Balance 2017'!G13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="4">
         <f>'Energy Balance 2017'!G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <f>'Energy Balance 2017'!G25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="4">
         <f>'Energy Balance 2017'!G26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>10</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="4">
         <f>'Energy Balance 2017'!G27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="4">
         <f>'Energy Balance 2017'!G28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="4">
         <f>C93</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="4">
         <f t="shared" ref="C99:C102" si="2">C94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="4">
         <f>-'Energy Balance 2017'!G17</f>
-        <v>2411.7790870058489</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+        <v>2547.3740326741326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="4">
         <f>-'Energy Balance 2017'!G18</f>
-        <v>2884.0992956615391</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+        <v>3149.4937764426163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="4">
         <f>'Energy Balance 2017'!G22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <f>'Energy Balance 2017'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>46</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <f>'Energy Balance 2017'!H6</f>
-        <v>106.93319002579594</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+        <v>26.65954428202938</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <f>-'Energy Balance 2017'!H9</f>
-        <v>1470.0959587274372</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+        <v>1664.6906276870252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <f>'Energy Balance 2017'!H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <f>'Energy Balance 2017'!H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <f>'Energy Balance 2017'!H24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <f>'Energy Balance 2017'!H25</f>
-        <v>718.46919819610491</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+        <v>515.90633528023898</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <f>'Energy Balance 2017'!H26</f>
-        <v>1025.0792974316162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+        <v>1342.8075423261128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <f>'Energy Balance 2017'!H27</f>
-        <v>42.785328417037135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+        <v>32.994768513806051</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <f>'Energy Balance 2017'!H28</f>
-        <v>739.99228323433954</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+        <v>514.0715000535439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>44</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <f>C111</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <f>C112</f>
-        <v>718.46919819610491</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+        <v>515.90633528023898</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <f>C113</f>
-        <v>1025.0792974316162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
+        <v>1342.8075423261128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <f>C114</f>
-        <v>42.785328417037135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+        <v>32.994768513806051</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>44</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <f>C115</f>
-        <v>739.99228323433954</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+        <v>514.0715000535439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>51</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <f>'Energy Balance 2017'!H17</f>
-        <v>2411.7790870058489</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+        <v>2547.3740326741326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <f>'Energy Balance 2017'!H18</f>
-        <v>1884.8186415140672</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+        <v>1912.184918314714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <f>'Energy Balance 2017'!H22</f>
-        <v>407.10885253917718</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>390.26122098022569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <f>'Energy Balance 2017'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>46</v>
       </c>
       <c r="B125" t="s">
         <v>56</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <f>'Energy Balance 2017'!H6</f>
-        <v>106.93319002579594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26.65954428202938</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>56</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <f>'Energy Balance 2017'!I9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
       <c r="B127" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <f>'Energy Balance 2017'!I12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>47</v>
       </c>
       <c r="B128" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <f>'Energy Balance 2017'!I13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>56</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <f>'Energy Balance 2017'!I24</f>
-        <v>61.437384387783851</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.8615370185005631</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>56</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <f>'Energy Balance 2017'!I25</f>
-        <v>9.6805474918382135</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0651836007010982</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>56</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <f>'Energy Balance 2017'!I26</f>
-        <v>26.49297201977658</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.0258646011353</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>56</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <f>'Energy Balance 2017'!I27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>56</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <f>'Energy Balance 2017'!I28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
       <c r="B134" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <f>C129</f>
-        <v>61.437384387783851</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8.8615370185005631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>44</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <f>C130</f>
-        <v>9.6805474918382135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1.0651836007010982</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
       <c r="B136" t="s">
         <v>44</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <f>C131</f>
-        <v>26.49297201977658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.0258646011353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <f t="shared" ref="C137:C138" si="3">C132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
       <c r="B138" t="s">
         <v>44</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>51</v>
       </c>
       <c r="B139" t="s">
         <v>56</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <f>'Energy Balance 2017'!I17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>52</v>
       </c>
       <c r="B140" t="s">
         <v>56</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <f>'Energy Balance 2017'!I18</f>
-        <v>120.37350197419499</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120.41261291716035</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>56</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <f>'Energy Balance 2017'!I22</f>
-        <v>22.76259807049712</v>
+        <v>95.460027696823445</v>
       </c>
     </row>
   </sheetData>
